--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Inha-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Inha-Acvr2a.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N2">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O2">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P2">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q2">
-        <v>0.3804519515222222</v>
+        <v>0.4066022805066667</v>
       </c>
       <c r="R2">
-        <v>3.4240675637</v>
+        <v>3.65942052456</v>
       </c>
       <c r="S2">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="T2">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>81.613078</v>
       </c>
       <c r="O3">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P3">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q3">
         <v>0.9493414595355555</v>
@@ -641,10 +641,10 @@
         <v>8.54407313582</v>
       </c>
       <c r="S3">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="T3">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N4">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O4">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P4">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q4">
-        <v>0.2064562874733334</v>
+        <v>0.3021066898366667</v>
       </c>
       <c r="R4">
-        <v>1.85810658726</v>
+        <v>2.71896020853</v>
       </c>
       <c r="S4">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="T4">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N5">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O5">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P5">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q5">
-        <v>0.5926003971466667</v>
+        <v>0.1915303433677778</v>
       </c>
       <c r="R5">
-        <v>5.33340357432</v>
+        <v>1.72377309031</v>
       </c>
       <c r="S5">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="T5">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N6">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O6">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P6">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q6">
-        <v>0.1374021934944444</v>
+        <v>0.1427834921388889</v>
       </c>
       <c r="R6">
-        <v>1.23661974145</v>
+        <v>1.28505142925</v>
       </c>
       <c r="S6">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="T6">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N7">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O7">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P7">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q7">
-        <v>0.2098323771222222</v>
+        <v>0.1557726363477778</v>
       </c>
       <c r="R7">
-        <v>1.8884913941</v>
+        <v>1.40195372713</v>
       </c>
       <c r="S7">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="T7">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
     </row>
   </sheetData>
